--- a/biology/Médecine/Hôpital_adventiste_d'Haïti/Hôpital_adventiste_d'Haïti.xlsx
+++ b/biology/Médecine/Hôpital_adventiste_d'Haïti/Hôpital_adventiste_d'Haïti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_adventiste_d%27Ha%C3%AFti</t>
+          <t>Hôpital_adventiste_d'Haïti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital adventiste d'Haïti se trouve à Port-au-Prince en Haïti, dans le quartier Diquini. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_adventiste_d%27Ha%C3%AFti</t>
+          <t>Hôpital_adventiste_d'Haïti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Adventiste d'Haïti est la propriété de l'Eglise Adventiste du Septième Jour qui en assure la direction. 
 A ses débuts, en 1968, ce n’était qu'une Clinique ambulatoire. 
-Il a démarré ses services en 1978 et possède 70 lits[1]. 
+Il a démarré ses services en 1978 et possède 70 lits. 
 En 1981, l'Hôpital s’est agrandi pour devenir un hôpital couvrant de nombreuses spécialités médicales. 
-Il a peu été atteint par le tremblement de terre du 12 janvier 2010[2]. Depuis 2007, les étudiants en médecine de la classe sortante 2010 de l'université de Loma Linda soutiennent cet hôpital[2]. Depuis la catastrophe, l'Institut global de la santé et CURE International ont aussi renforcé leurs moyens financiers, logistiques et en personnel dans cet établissement[3],[4].
+Il a peu été atteint par le tremblement de terre du 12 janvier 2010. Depuis 2007, les étudiants en médecine de la classe sortante 2010 de l'université de Loma Linda soutiennent cet hôpital. Depuis la catastrophe, l'Institut global de la santé et CURE International ont aussi renforcé leurs moyens financiers, logistiques et en personnel dans cet établissement,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_adventiste_d%27Ha%C3%AFti</t>
+          <t>Hôpital_adventiste_d'Haïti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jere Chrispens, Président-directeur général
 Christophe Mackenson , Directeur des opérations
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_adventiste_d%27Ha%C3%AFti</t>
+          <t>Hôpital_adventiste_d'Haïti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2023, les services disponibles sont[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2023, les services disponibles sont
 Service de Consultations Externes
 Clinique de Médecine interne
 Pédiatrie
